--- a/data/extracted_data/raw/coefficients/Mafra_etal_2010_Fig3.xlsx
+++ b/data/extracted_data/raw/coefficients/Mafra_etal_2010_Fig3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/coefficients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66507F12-EBC6-5041-95CD-EA8F25E4CA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84810502-9821-F343-8FEA-B9AED3EF7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{1C563CD9-2C37-E548-ABE6-7C3AB947F0E6}"/>
+    <workbookView xWindow="16380" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{1C563CD9-2C37-E548-ABE6-7C3AB947F0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,9 +56,6 @@
     <t>viscera</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>non-viscera</t>
   </si>
   <si>
@@ -74,7 +71,10 @@
     <t>whole</t>
   </si>
   <si>
-    <t>half_life</t>
+    <t>k_d</t>
+  </si>
+  <si>
+    <t>half_life_d</t>
   </si>
 </sst>
 </file>
@@ -449,14 +449,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -479,14 +479,14 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1.3411764705882301</v>
+        <v>0.94117647058823495</v>
       </c>
       <c r="E2">
         <f>LN(2)/D2</f>
-        <v>0.51682026620697874</v>
+        <v>0.7364688793449421</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -494,17 +494,17 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.623529411764706</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">LN(2)/D3</f>
-        <v>1.1116511386338743</v>
+        <f>LN(2)/D3</f>
+        <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -512,17 +512,17 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.435294117647058</v>
+        <v>1.3764705882352899</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.592365144529607</v>
+        <f>LN(2)/D4</f>
+        <v>0.50356846450936354</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,17 +530,17 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.45882352941176402</v>
+        <v>1.74117647058823</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1.5107053935280881</v>
+        <f>LN(2)/D5</f>
+        <v>0.39809128613240224</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -548,17 +548,17 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.435294117647058</v>
+        <v>1.48235294117647</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.592365144529607</v>
+        <f>LN(2)/D6</f>
+        <v>0.46759928847297916</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,233 +569,238 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.152941176470588</v>
+        <v>2.0588235294117601</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>4.5321161805842651</v>
+        <f>LN(2)/D7</f>
+        <v>0.33667148770054561</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1.74117647058823</v>
+        <v>1.5930232558139501</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.39809128613240224</v>
+        <f>LN(2)/D8</f>
+        <v>0.43511428852668188</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
       <c r="D9">
-        <v>0.94117647058823495</v>
+        <v>1.3953488372092999</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.7364688793449421</v>
+        <f>LN(2)/D9</f>
+        <v>0.496755479401295</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
       <c r="D10">
-        <v>1.48235294117647</v>
+        <v>1.6162790697674401</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.46759928847297916</v>
+        <f>LN(2)/D10</f>
+        <v>0.42885365128169323</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.623529411764706</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.69314718055994529</v>
+        <f>LN(2)/D11</f>
+        <v>1.1116511386338743</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>2.0588235294117601</v>
+        <v>0.45882352941176402</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.33667148770054561</v>
+        <f>LN(2)/D12</f>
+        <v>1.5107053935280881</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>1.3764705882352899</v>
+        <v>0.152941176470588</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.50356846450936354</v>
+        <f>LN(2)/D13</f>
+        <v>4.5321161805842651</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.89534883720930203</v>
+        <v>1.3411764705882301</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.77416438348253658</v>
+        <f>LN(2)/D14</f>
+        <v>0.51682026620697874</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.46511627906976699</v>
+        <v>0.435294117647058</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1.4902664382038837</v>
+        <f>LN(2)/D15</f>
+        <v>1.592365144529607</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0.25581395348837199</v>
+        <v>0.435294117647058</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>2.7095753421888782</v>
+        <f>LN(2)/D16</f>
+        <v>1.592365144529607</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>1.5930232558139501</v>
+        <v>0.89534883720930203</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.43511428852668188</v>
+        <f>LN(2)/D17</f>
+        <v>0.77416438348253658</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>1.3953488372092999</v>
+        <v>0.46511627906976699</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.496755479401295</v>
+        <f>LN(2)/D18</f>
+        <v>1.4902664382038837</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>1.6162790697674401</v>
+        <v>0.25581395348837199</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0.42885365128169323</v>
+        <f>LN(2)/D19</f>
+        <v>2.7095753421888782</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="A2:A19"/>
+    <sortCondition ref="C2:C19"/>
+    <sortCondition descending="1" ref="B2:B19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>